--- a/日报历史数据/一亿送课活动日报看板-03-28.xlsx
+++ b/日报历史数据/一亿送课活动日报看板-03-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27680" windowHeight="16360"/>
+    <workbookView windowWidth="24060" windowHeight="9940"/>
   </bookViews>
   <sheets>
     <sheet name="日报" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.当日申请企业数154家，相比前天</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>涨幅46.7%</t>
@@ -125,6 +131,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，领取课程人数2317人，相比前天下降19%。目前从累计上看，</t>
@@ -133,6 +140,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>领取转化率42.3%和上课转化率47.6%</t>
@@ -140,6 +148,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，依旧有一定提升空间，尤其是上课转化率，加油。
@@ -149,6 +158,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>杭州和广州</t>
@@ -156,6 +166,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>表现最佳，领取转化率上，</t>
@@ -164,6 +175,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>北京，杭州，广州，厦门偏低</t>
@@ -171,6 +183,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，需要加油跟上步伐。（由于上线了100人以内企业直接发放海报，所以暂时重点关注下领取转化率）
@@ -180,6 +193,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>大连和杭州</t>
@@ -187,6 +201,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>略胜一筹，但整体仍需提高，但前提假设是上课对转化有帮助，否则此阶段应该聚焦转化。
@@ -497,14 +512,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -662,13 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -683,18 +691,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,14 +715,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,22 +761,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -754,22 +770,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,9 +798,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +815,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,7 +832,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -871,19 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +903,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +987,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,127 +1047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,21 +1127,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1159,195 +1197,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1417,7 +1431,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1429,13 +1443,13 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1444,7 +1458,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1465,16 +1479,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,43 +1500,28 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5387,8 +5380,8 @@
   <sheetPr/>
   <dimension ref="A1:AA238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6"/>
@@ -5431,17 +5424,17 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -5519,13 +5512,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="35"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="35" t="s">
@@ -5535,27 +5528,27 @@
         <v>14</v>
       </c>
       <c r="M3" s="35"/>
-      <c r="N3" s="62">
+      <c r="N3" s="55">
         <f>P3*R3*T3*V3</f>
         <v>57090</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55">
         <f>H4</f>
         <v>13264</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40">
         <f>R5/P3</f>
         <v>0.753769601930036</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40">
         <f>T5/R5</f>
         <v>0.423084616923385</v>
       </c>
-      <c r="U3" s="62"/>
-      <c r="V3" s="65">
+      <c r="U3" s="55"/>
+      <c r="V3" s="58">
         <f>V5/T5</f>
         <v>13.4964539007092</v>
       </c>
@@ -5566,44 +5559,44 @@
         <f>INDEX(总体数据!B:B,MATCH(A2,总体数据!A:A,0))</f>
         <v>154</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="34">
         <f>INDEX(总体数据!C:C,MATCH(A2,总体数据!A:A,0))</f>
         <v>89</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="34">
         <f>INDEX(总体数据!D:D,MATCH(A2,总体数据!A:A,0))</f>
         <v>40</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <f>INDEX(总体数据!E:E,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.5779</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <f>INDEX(总体数据!F:F,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4494</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="39">
+      <c r="G4" s="35"/>
+      <c r="H4" s="34">
         <f>INDEX(总体数据!G:G,MATCH(A2,总体数据!A:A,0))</f>
         <v>13264</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="34">
         <f>INDEX(总体数据!H:H,MATCH(A2,总体数据!A:A,0))</f>
         <v>9998</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="34">
         <f>INDEX(总体数据!I:I,MATCH(A2,总体数据!A:A,0))</f>
         <v>4230</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="40">
         <f>INDEX(总体数据!J:J,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.7538</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="40">
         <f>INDEX(总体数据!K:K,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4231</v>
       </c>
-      <c r="M4" s="62"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
       <c r="P4" s="35"/>
@@ -5626,45 +5619,45 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <f>INDEX(总体数据!B:B,MATCH(A5,总体数据!A:A,0))</f>
         <v>0.466666667</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <f>INDEX(总体数据!C:C,MATCH(A5,总体数据!A:A,0))</f>
         <v>1.966666667</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="40">
         <f>INDEX(总体数据!D:D,MATCH(A5,总体数据!A:A,0))</f>
         <v>1.666666667</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
       <c r="P5" s="35"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62">
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55">
         <f>I4</f>
         <v>9998</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62">
+      <c r="S5" s="55"/>
+      <c r="T5" s="55">
         <f>J4</f>
         <v>4230</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62">
+      <c r="U5" s="55"/>
+      <c r="V5" s="55">
         <f>H7</f>
         <v>57090</v>
       </c>
@@ -5676,35 +5669,35 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="37"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="50" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="35"/>
@@ -5724,45 +5717,45 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="38">
         <f>INDEX(总体数据!N:N,MATCH(A2,总体数据!A:A,0))</f>
         <v>2317</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <f>INDEX(总体数据!O:O,MATCH(A2,总体数据!A:A,0))</f>
         <v>1687</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="34">
         <f>INDEX(总体数据!P:P,MATCH(A2,总体数据!A:A,0))</f>
         <v>698</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <f>INDEX(总体数据!Q:Q,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.7281</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <f>INDEX(总体数据!R:R,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.3013</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="39">
+      <c r="G7" s="35"/>
+      <c r="H7" s="34">
         <f>INDEX(总体数据!S:S,MATCH(A2,总体数据!A:A,0))</f>
         <v>57090</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="34">
         <f>INDEX(总体数据!T:T,MATCH(A2,总体数据!A:A,0))</f>
         <v>38373</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="34">
         <f>INDEX(总体数据!U:U,MATCH(A2,总体数据!A:A,0))</f>
         <v>27198</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="40">
         <f>INDEX(总体数据!V:V,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.6721</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="48">
         <f>INDEX(总体数据!W:W,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4764</v>
       </c>
@@ -5778,29 +5771,29 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <f>INDEX(总体数据!N:N,MATCH(A8,总体数据!A:A,0))</f>
         <v>-0.190426275</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <f>INDEX(总体数据!O:O,MATCH(A8,总体数据!A:A,0))</f>
         <v>-0.178675755</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <f>INDEX(总体数据!P:P,MATCH(A8,总体数据!A:A,0))</f>
         <v>-0.281893004</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -5813,7 +5806,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="35"/>
@@ -5839,7 +5832,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="44"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -5863,7 +5856,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="44"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -5887,7 +5880,7 @@
       <c r="V11" s="35"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="35"/>
       <c r="C12" s="1"/>
       <c r="D12" s="35" t="s">
@@ -5902,18 +5895,18 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="44"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -5937,7 +5930,7 @@
       <c r="V13" s="35"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="44"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -5953,15 +5946,15 @@
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="44"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -5985,7 +5978,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -6004,7 +5997,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="44"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -6023,7 +6016,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="44"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -6042,7 +6035,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="44"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -6061,7 +6054,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="44"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -6080,7 +6073,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="44"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -6099,7 +6092,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="44"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -6118,7 +6111,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="44"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -6137,7 +6130,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="44"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -6185,7 +6178,7 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="51"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="33" t="s">
         <v>28</v>
       </c>
@@ -6210,7 +6203,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -6229,19 +6222,19 @@
         <v>14</v>
       </c>
       <c r="G27" s="34"/>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="45" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="1"/>
@@ -6267,11 +6260,11 @@
         <f>分社漏斗数据!E2</f>
         <v>9</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="48">
         <f>分社漏斗数据!F2</f>
         <v>0.3684</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="40">
         <f>分社漏斗数据!G2</f>
         <v>0.6429</v>
       </c>
@@ -6288,11 +6281,11 @@
         <f>分社漏斗数据!L2</f>
         <v>387</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="40">
         <f>分社漏斗数据!M2</f>
         <v>0.745</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L28" s="40">
         <f>分社漏斗数据!N2</f>
         <v>0.5451</v>
       </c>
@@ -6319,11 +6312,11 @@
         <f>分社漏斗数据!E3</f>
         <v>5</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="40">
         <f>分社漏斗数据!F3</f>
         <v>0.3462</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="40">
         <f>分社漏斗数据!G3</f>
         <v>0.5556</v>
       </c>
@@ -6340,11 +6333,11 @@
         <f>分社漏斗数据!L3</f>
         <v>316</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="40">
         <f>分社漏斗数据!M3</f>
         <v>0.8391</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="48">
         <f>分社漏斗数据!N3</f>
         <v>0.162</v>
       </c>
@@ -6371,11 +6364,11 @@
         <f>分社漏斗数据!E4</f>
         <v>3</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="49">
         <f>分社漏斗数据!F4</f>
         <v>0.9167</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="48">
         <f>分社漏斗数据!G4</f>
         <v>0.2727</v>
       </c>
@@ -6392,11 +6385,11 @@
         <f>分社漏斗数据!L4</f>
         <v>177</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="40">
         <f>分社漏斗数据!M4</f>
         <v>0.624</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="40">
         <f>分社漏斗数据!N4</f>
         <v>0.7406</v>
       </c>
@@ -6423,11 +6416,11 @@
         <f>分社漏斗数据!E5</f>
         <v>3</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="40">
         <f>分社漏斗数据!F5</f>
         <v>0.5833</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="40">
         <f>分社漏斗数据!G5</f>
         <v>0.4286</v>
       </c>
@@ -6444,11 +6437,11 @@
         <f>分社漏斗数据!L5</f>
         <v>655</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="40">
         <f>分社漏斗数据!M5</f>
         <v>0.652</v>
       </c>
-      <c r="L31" s="60">
+      <c r="L31" s="53">
         <f>分社漏斗数据!N5</f>
         <v>0.8529</v>
       </c>
@@ -6475,11 +6468,11 @@
         <f>分社漏斗数据!E6</f>
         <v>0</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="40">
         <f>分社漏斗数据!F6</f>
         <v>0.4545</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="48">
         <f>分社漏斗数据!G6</f>
         <v>0</v>
       </c>
@@ -6496,11 +6489,11 @@
         <f>分社漏斗数据!L6</f>
         <v>516</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="53">
         <f>分社漏斗数据!M6</f>
         <v>0.9671</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="48">
         <f>分社漏斗数据!N6</f>
         <v>0.3581</v>
       </c>
@@ -6527,11 +6520,11 @@
         <f>分社漏斗数据!E7</f>
         <v>4</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="40">
         <f>分社漏斗数据!F7</f>
         <v>0.7</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="40">
         <f>分社漏斗数据!G7</f>
         <v>0.5714</v>
       </c>
@@ -6548,11 +6541,11 @@
         <f>分社漏斗数据!L7</f>
         <v>301</v>
       </c>
-      <c r="K33" s="60">
+      <c r="K33" s="53">
         <f>分社漏斗数据!M7</f>
         <v>0.9574</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="48">
         <f>分社漏斗数据!N7</f>
         <v>0.2391</v>
       </c>
@@ -6579,11 +6572,11 @@
         <f>分社漏斗数据!E8</f>
         <v>1</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="40">
         <f>分社漏斗数据!F8</f>
         <v>0.5714</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="48">
         <f>分社漏斗数据!G8</f>
         <v>0.25</v>
       </c>
@@ -6600,26 +6593,26 @@
         <f>分社漏斗数据!L8</f>
         <v>53</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="40">
         <f>分社漏斗数据!M8</f>
         <v>0.679</v>
       </c>
-      <c r="L34" s="53">
+      <c r="L34" s="40">
         <f>分社漏斗数据!N8</f>
         <v>0.1205</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="63" t="s">
+      <c r="N34" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -6643,11 +6636,11 @@
         <f>分社漏斗数据!E9</f>
         <v>3</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="40">
         <f>分社漏斗数据!F9</f>
         <v>1</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="40">
         <f>分社漏斗数据!G9</f>
         <v>0.4286</v>
       </c>
@@ -6664,24 +6657,24 @@
         <f>分社漏斗数据!L9</f>
         <v>341</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="40">
         <f>分社漏斗数据!M9</f>
         <v>0.7504</v>
       </c>
-      <c r="L35" s="53">
+      <c r="L35" s="40">
         <f>分社漏斗数据!N9</f>
         <v>0.7134</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -6705,11 +6698,11 @@
         <f>分社漏斗数据!E10</f>
         <v>2</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="40">
         <f>分社漏斗数据!F10</f>
         <v>0.7143</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="40">
         <f>分社漏斗数据!G10</f>
         <v>0.4</v>
       </c>
@@ -6726,24 +6719,24 @@
         <f>分社漏斗数据!L10</f>
         <v>141</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="40">
         <f>分社漏斗数据!M10</f>
         <v>0.9701</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="48">
         <f>分社漏斗数据!N10</f>
         <v>0.2901</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -6767,11 +6760,11 @@
         <f>分社漏斗数据!E11</f>
         <v>2</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="40">
         <f>分社漏斗数据!F11</f>
         <v>0.6</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="40">
         <f>分社漏斗数据!G11</f>
         <v>0.6667</v>
       </c>
@@ -6788,24 +6781,24 @@
         <f>分社漏斗数据!L11</f>
         <v>123</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="40">
         <f>分社漏斗数据!M11</f>
         <v>0.6958</v>
       </c>
-      <c r="L37" s="53">
+      <c r="L37" s="40">
         <f>分社漏斗数据!N11</f>
         <v>0.498</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -6829,11 +6822,11 @@
         <f>分社漏斗数据!E12</f>
         <v>1</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="40">
         <f>分社漏斗数据!F12</f>
         <v>0.75</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="40">
         <f>分社漏斗数据!G12</f>
         <v>0.3333</v>
       </c>
@@ -6850,24 +6843,24 @@
         <f>分社漏斗数据!L12</f>
         <v>221</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="40">
         <f>分社漏斗数据!M12</f>
         <v>0.8084</v>
       </c>
-      <c r="L38" s="53">
+      <c r="L38" s="40">
         <f>分社漏斗数据!N12</f>
         <v>0.6717</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -6891,11 +6884,11 @@
         <f>分社漏斗数据!E13</f>
         <v>1</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="40">
         <f>分社漏斗数据!F13</f>
         <v>1</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="40">
         <f>分社漏斗数据!G13</f>
         <v>0.3333</v>
       </c>
@@ -6912,24 +6905,24 @@
         <f>分社漏斗数据!L13</f>
         <v>218</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="40">
         <f>分社漏斗数据!M13</f>
         <v>0.9171</v>
       </c>
-      <c r="L39" s="53">
+      <c r="L39" s="40">
         <f>分社漏斗数据!N13</f>
         <v>0.6566</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -6953,11 +6946,11 @@
         <f>分社漏斗数据!E14</f>
         <v>1</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="40">
         <f>分社漏斗数据!F14</f>
         <v>1</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="40">
         <f>分社漏斗数据!G14</f>
         <v>0.5</v>
       </c>
@@ -6974,24 +6967,24 @@
         <f>分社漏斗数据!L14</f>
         <v>195</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="40">
         <f>分社漏斗数据!M14</f>
         <v>0.9396</v>
       </c>
-      <c r="L40" s="53">
+      <c r="L40" s="40">
         <f>分社漏斗数据!N14</f>
         <v>0.4046</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -7015,11 +7008,11 @@
         <f>分社漏斗数据!E15</f>
         <v>2</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="40">
         <f>分社漏斗数据!F15</f>
         <v>1</v>
       </c>
-      <c r="F41" s="53">
+      <c r="F41" s="40">
         <f>分社漏斗数据!G15</f>
         <v>1</v>
       </c>
@@ -7036,24 +7029,24 @@
         <f>分社漏斗数据!L15</f>
         <v>204</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="40">
         <f>分社漏斗数据!M15</f>
         <v>0.5294</v>
       </c>
-      <c r="L41" s="53">
+      <c r="L41" s="40">
         <f>分社漏斗数据!N15</f>
         <v>0.7816</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -7077,11 +7070,11 @@
         <f>分社漏斗数据!E16</f>
         <v>2</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="40">
         <f>分社漏斗数据!F16</f>
         <v>1</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="40">
         <f>分社漏斗数据!G16</f>
         <v>1</v>
       </c>
@@ -7098,24 +7091,24 @@
         <f>分社漏斗数据!L16</f>
         <v>3</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K42" s="40">
         <f>分社漏斗数据!M16</f>
         <v>0.0071</v>
       </c>
-      <c r="L42" s="53">
+      <c r="L42" s="40">
         <f>分社漏斗数据!N16</f>
         <v>0.6</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -7139,11 +7132,11 @@
         <f>分社漏斗数据!E17</f>
         <v>0</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="40">
         <f>分社漏斗数据!F17</f>
         <v>1</v>
       </c>
-      <c r="F43" s="53">
+      <c r="F43" s="40">
         <f>分社漏斗数据!G17</f>
         <v>0</v>
       </c>
@@ -7160,24 +7153,24 @@
         <f>分社漏斗数据!L17</f>
         <v>234</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K43" s="40">
         <f>分社漏斗数据!M17</f>
         <v>0.9561</v>
       </c>
-      <c r="L43" s="53">
+      <c r="L43" s="40">
         <f>分社漏斗数据!N17</f>
         <v>0.6324</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -7201,11 +7194,11 @@
         <f>分社漏斗数据!E18</f>
         <v>0</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="40">
         <f>分社漏斗数据!F18</f>
         <v>0</v>
       </c>
-      <c r="F44" s="53">
+      <c r="F44" s="40">
         <f>分社漏斗数据!G18</f>
         <v>0</v>
       </c>
@@ -7222,24 +7215,24 @@
         <f>分社漏斗数据!L18</f>
         <v>2</v>
       </c>
-      <c r="K44" s="53">
+      <c r="K44" s="40">
         <f>分社漏斗数据!M18</f>
         <v>0.1875</v>
       </c>
-      <c r="L44" s="53">
+      <c r="L44" s="40">
         <f>分社漏斗数据!N18</f>
         <v>0.6667</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="35" t="str">
@@ -7258,11 +7251,11 @@
         <f>分社漏斗数据!E19</f>
         <v>0</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="50">
         <f>分社漏斗数据!F19</f>
         <v>1</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="50">
         <f>分社漏斗数据!G19</f>
         <v>0</v>
       </c>
@@ -7279,24 +7272,24 @@
         <f>分社漏斗数据!L19</f>
         <v>4</v>
       </c>
-      <c r="K45" s="55">
+      <c r="K45" s="50">
         <f>分社漏斗数据!M19</f>
         <v>0.3571</v>
       </c>
-      <c r="L45" s="55">
+      <c r="L45" s="50">
         <f>分社漏斗数据!N19</f>
         <v>0.8</v>
       </c>
       <c r="M45" s="1"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -7320,11 +7313,11 @@
         <f>分社漏斗数据!E20</f>
         <v>0</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="50">
         <f>分社漏斗数据!F20</f>
         <v>1</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="50">
         <f>分社漏斗数据!G20</f>
         <v>0</v>
       </c>
@@ -7341,24 +7334,24 @@
         <f>分社漏斗数据!L20</f>
         <v>133</v>
       </c>
-      <c r="K46" s="55">
+      <c r="K46" s="50">
         <f>分社漏斗数据!M20</f>
         <v>0.3376</v>
       </c>
-      <c r="L46" s="55">
+      <c r="L46" s="50">
         <f>分社漏斗数据!N20</f>
         <v>0.7268</v>
       </c>
       <c r="M46" s="1"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="64"/>
-      <c r="V46" s="64"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -7382,11 +7375,11 @@
         <f>分社漏斗数据!E21</f>
         <v>1</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="50">
         <f>分社漏斗数据!F21</f>
         <v>1</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="50">
         <f>分社漏斗数据!G21</f>
         <v>1</v>
       </c>
@@ -7403,24 +7396,24 @@
         <f>分社漏斗数据!L21</f>
         <v>3</v>
       </c>
-      <c r="K47" s="55">
+      <c r="K47" s="50">
         <f>分社漏斗数据!M21</f>
         <v>0.2308</v>
       </c>
-      <c r="L47" s="55">
+      <c r="L47" s="50">
         <f>分社漏斗数据!N21</f>
         <v>1</v>
       </c>
       <c r="M47" s="1"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -7444,11 +7437,11 @@
         <f>分社漏斗数据!E22</f>
         <v>0</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="50">
         <f>分社漏斗数据!F22</f>
         <v>1</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="50">
         <f>分社漏斗数据!G22</f>
         <v>0</v>
       </c>
@@ -7465,24 +7458,24 @@
         <f>分社漏斗数据!L22</f>
         <v>0</v>
       </c>
-      <c r="K48" s="55">
+      <c r="K48" s="50">
         <f>分社漏斗数据!M22</f>
         <v>0.2</v>
       </c>
-      <c r="L48" s="55">
+      <c r="L48" s="50">
         <f>分社漏斗数据!N22</f>
         <v>0</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="64"/>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -7506,11 +7499,11 @@
         <f>分社漏斗数据!E23</f>
         <v>0</v>
       </c>
-      <c r="E49" s="55">
+      <c r="E49" s="50">
         <f>分社漏斗数据!F23</f>
         <v>0</v>
       </c>
-      <c r="F49" s="55">
+      <c r="F49" s="50">
         <f>分社漏斗数据!G23</f>
         <v>0</v>
       </c>
@@ -7527,24 +7520,24 @@
         <f>分社漏斗数据!L23</f>
         <v>3</v>
       </c>
-      <c r="K49" s="55">
+      <c r="K49" s="50">
         <f>分社漏斗数据!M23</f>
         <v>0.25</v>
       </c>
-      <c r="L49" s="55">
+      <c r="L49" s="50">
         <f>分社漏斗数据!N23</f>
         <v>1</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="64"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -7568,11 +7561,11 @@
         <f>分社漏斗数据!E24</f>
         <v>0</v>
       </c>
-      <c r="E50" s="55">
+      <c r="E50" s="50">
         <f>分社漏斗数据!F24</f>
         <v>0</v>
       </c>
-      <c r="F50" s="55">
+      <c r="F50" s="50">
         <f>分社漏斗数据!G24</f>
         <v>0</v>
       </c>
@@ -7589,24 +7582,24 @@
         <f>分社漏斗数据!L24</f>
         <v>0</v>
       </c>
-      <c r="K50" s="55">
+      <c r="K50" s="50">
         <f>分社漏斗数据!M24</f>
         <v>0.2</v>
       </c>
-      <c r="L50" s="55">
+      <c r="L50" s="50">
         <f>分社漏斗数据!N24</f>
         <v>0</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -7615,47 +7608,47 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="35"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="64"/>
-      <c r="U52" s="64"/>
-      <c r="V52" s="64"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="34"/>
@@ -7666,7 +7659,7 @@
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
-      <c r="G53" s="58"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="33" t="s">
         <v>33</v>
       </c>
@@ -7675,15 +7668,15 @@
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="64"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="64"/>
-      <c r="U53" s="64"/>
-      <c r="V53" s="64"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
@@ -7691,7 +7684,7 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="36" t="s">
@@ -7710,31 +7703,31 @@
         <v>23</v>
       </c>
       <c r="G54" s="34"/>
-      <c r="H54" s="47" t="s">
+      <c r="H54" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="47" t="s">
+      <c r="J54" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="47" t="s">
+      <c r="K54" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="47" t="s">
+      <c r="L54" s="45" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="64"/>
-      <c r="U54" s="64"/>
-      <c r="V54" s="64"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="35" t="str">
@@ -7753,11 +7746,11 @@
         <f>分社学习数据!E2</f>
         <v>143</v>
       </c>
-      <c r="E55" s="53">
+      <c r="E55" s="40">
         <f>分社学习数据!F2</f>
         <v>0.6268</v>
       </c>
-      <c r="F55" s="53">
+      <c r="F55" s="40">
         <f>分社学习数据!G2</f>
         <v>0.2901</v>
       </c>
@@ -7774,24 +7767,24 @@
         <f>分社学习数据!L2</f>
         <v>4359</v>
       </c>
-      <c r="K55" s="53">
+      <c r="K55" s="40">
         <f>分社学习数据!M2</f>
         <v>0.6986</v>
       </c>
-      <c r="L55" s="53">
+      <c r="L55" s="40">
         <f>分社学习数据!N2</f>
         <v>0.5011</v>
       </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="64"/>
-      <c r="U55" s="64"/>
-      <c r="V55" s="64"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="35" t="str">
@@ -7810,11 +7803,11 @@
         <f>分社学习数据!E3</f>
         <v>137</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="40">
         <f>分社学习数据!F3</f>
         <v>0.8653</v>
       </c>
-      <c r="F56" s="53">
+      <c r="F56" s="40">
         <f>分社学习数据!G3</f>
         <v>0.2884</v>
       </c>
@@ -7831,24 +7824,24 @@
         <f>分社学习数据!L3</f>
         <v>3933</v>
       </c>
-      <c r="K56" s="53">
+      <c r="K56" s="40">
         <f>分社学习数据!M3</f>
         <v>0.6777</v>
       </c>
-      <c r="L56" s="60">
+      <c r="L56" s="53">
         <f>分社学习数据!N3</f>
         <v>0.6054</v>
       </c>
       <c r="M56" s="1"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="64"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="35" t="str">
@@ -7867,11 +7860,11 @@
         <f>分社学习数据!E4</f>
         <v>122</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="40">
         <f>分社学习数据!F4</f>
         <v>0.7936</v>
       </c>
-      <c r="F57" s="53">
+      <c r="F57" s="40">
         <f>分社学习数据!G4</f>
         <v>0.2596</v>
       </c>
@@ -7888,24 +7881,24 @@
         <f>分社学习数据!L4</f>
         <v>8869</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="40">
         <f>分社学习数据!M4</f>
         <v>0.7123</v>
       </c>
-      <c r="L57" s="53">
+      <c r="L57" s="40">
         <f>分社学习数据!N4</f>
         <v>0.4205</v>
       </c>
       <c r="M57" s="1"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="64"/>
-      <c r="V57" s="64"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="35" t="str">
@@ -7924,11 +7917,11 @@
         <f>分社学习数据!E5</f>
         <v>56</v>
       </c>
-      <c r="E58" s="53">
+      <c r="E58" s="40">
         <f>分社学习数据!F5</f>
         <v>0.6078</v>
       </c>
-      <c r="F58" s="53">
+      <c r="F58" s="40">
         <f>分社学习数据!G5</f>
         <v>0.366</v>
       </c>
@@ -7945,24 +7938,24 @@
         <f>分社学习数据!L5</f>
         <v>2087</v>
       </c>
-      <c r="K58" s="53">
+      <c r="K58" s="40">
         <f>分社学习数据!M5</f>
         <v>0.6144</v>
       </c>
-      <c r="L58" s="53">
+      <c r="L58" s="40">
         <f>分社学习数据!N5</f>
         <v>0.4348</v>
       </c>
       <c r="M58" s="1"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="35" t="str">
@@ -7981,11 +7974,11 @@
         <f>分社学习数据!E6</f>
         <v>26</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="40">
         <f>分社学习数据!F6</f>
         <v>0.6154</v>
       </c>
-      <c r="F59" s="53">
+      <c r="F59" s="40">
         <f>分社学习数据!G6</f>
         <v>0.2222</v>
       </c>
@@ -8002,24 +7995,24 @@
         <f>分社学习数据!L6</f>
         <v>1061</v>
       </c>
-      <c r="K59" s="53">
+      <c r="K59" s="40">
         <f>分社学习数据!M6</f>
         <v>0.6269</v>
       </c>
-      <c r="L59" s="53">
+      <c r="L59" s="40">
         <f>分社学习数据!N6</f>
         <v>0.4043</v>
       </c>
       <c r="M59" s="1"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="35" t="str">
@@ -8038,11 +8031,11 @@
         <f>分社学习数据!E7</f>
         <v>37</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="40">
         <f>分社学习数据!F7</f>
         <v>0.8529</v>
       </c>
-      <c r="F60" s="53">
+      <c r="F60" s="40">
         <f>分社学习数据!G7</f>
         <v>0.3627</v>
       </c>
@@ -8059,11 +8052,11 @@
         <f>分社学习数据!L7</f>
         <v>994</v>
       </c>
-      <c r="K60" s="53">
+      <c r="K60" s="40">
         <f>分社学习数据!M7</f>
         <v>0.6845</v>
       </c>
-      <c r="L60" s="60">
+      <c r="L60" s="53">
         <f>分社学习数据!N7</f>
         <v>0.6185</v>
       </c>
@@ -8090,11 +8083,11 @@
         <f>分社学习数据!E8</f>
         <v>27</v>
       </c>
-      <c r="E61" s="53">
+      <c r="E61" s="40">
         <f>分社学习数据!F8</f>
         <v>0.8375</v>
       </c>
-      <c r="F61" s="53">
+      <c r="F61" s="40">
         <f>分社学习数据!G8</f>
         <v>0.3375</v>
       </c>
@@ -8111,11 +8104,11 @@
         <f>分社学习数据!L8</f>
         <v>266</v>
       </c>
-      <c r="K61" s="53">
+      <c r="K61" s="40">
         <f>分社学习数据!M8</f>
         <v>0.5423</v>
       </c>
-      <c r="L61" s="53">
+      <c r="L61" s="40">
         <f>分社学习数据!N8</f>
         <v>0.5485</v>
       </c>
@@ -8152,11 +8145,11 @@
         <f>分社学习数据!E9</f>
         <v>24</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="40">
         <f>分社学习数据!F9</f>
         <v>0.6892</v>
       </c>
-      <c r="F62" s="53">
+      <c r="F62" s="40">
         <f>分社学习数据!G9</f>
         <v>0.3243</v>
       </c>
@@ -8173,11 +8166,11 @@
         <f>分社学习数据!L9</f>
         <v>1106</v>
       </c>
-      <c r="K62" s="53">
+      <c r="K62" s="40">
         <f>分社学习数据!M9</f>
         <v>0.6808</v>
       </c>
-      <c r="L62" s="53">
+      <c r="L62" s="40">
         <f>分社学习数据!N9</f>
         <v>0.4503</v>
       </c>
@@ -8214,11 +8207,11 @@
         <f>分社学习数据!E10</f>
         <v>14</v>
       </c>
-      <c r="E63" s="53">
+      <c r="E63" s="40">
         <f>分社学习数据!F10</f>
         <v>0.4462</v>
       </c>
-      <c r="F63" s="53">
+      <c r="F63" s="40">
         <f>分社学习数据!G10</f>
         <v>0.2154</v>
       </c>
@@ -8235,11 +8228,11 @@
         <f>分社学习数据!L10</f>
         <v>621</v>
       </c>
-      <c r="K63" s="53">
+      <c r="K63" s="40">
         <f>分社学习数据!M10</f>
         <v>0.5273</v>
       </c>
-      <c r="L63" s="53">
+      <c r="L63" s="40">
         <f>分社学习数据!N10</f>
         <v>0.4652</v>
       </c>
@@ -8276,11 +8269,11 @@
         <f>分社学习数据!E11</f>
         <v>14</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="40">
         <f>分社学习数据!F11</f>
         <v>0.6557</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="40">
         <f>分社学习数据!G11</f>
         <v>0.2295</v>
       </c>
@@ -8297,11 +8290,11 @@
         <f>分社学习数据!L11</f>
         <v>582</v>
       </c>
-      <c r="K64" s="53">
+      <c r="K64" s="40">
         <f>分社学习数据!M11</f>
         <v>0.5813</v>
       </c>
-      <c r="L64" s="53">
+      <c r="L64" s="40">
         <f>分社学习数据!N11</f>
         <v>0.4572</v>
       </c>
@@ -8338,11 +8331,11 @@
         <f>分社学习数据!E12</f>
         <v>17</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="40">
         <f>分社学习数据!F12</f>
         <v>0.7193</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="40">
         <f>分社学习数据!G12</f>
         <v>0.2982</v>
       </c>
@@ -8359,11 +8352,11 @@
         <f>分社学习数据!L12</f>
         <v>699</v>
       </c>
-      <c r="K65" s="53">
+      <c r="K65" s="40">
         <f>分社学习数据!M12</f>
         <v>0.6408</v>
       </c>
-      <c r="L65" s="53">
+      <c r="L65" s="40">
         <f>分社学习数据!N12</f>
         <v>0.4933</v>
       </c>
@@ -8400,11 +8393,11 @@
         <f>分社学习数据!E13</f>
         <v>20</v>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="40">
         <f>分社学习数据!F13</f>
         <v>0.7805</v>
       </c>
-      <c r="F66" s="53">
+      <c r="F66" s="40">
         <f>分社学习数据!G13</f>
         <v>0.4878</v>
       </c>
@@ -8421,11 +8414,11 @@
         <f>分社学习数据!L13</f>
         <v>538</v>
       </c>
-      <c r="K66" s="53">
+      <c r="K66" s="40">
         <f>分社学习数据!M13</f>
         <v>0.5654</v>
       </c>
-      <c r="L66" s="53">
+      <c r="L66" s="40">
         <f>分社学习数据!N13</f>
         <v>0.5412</v>
       </c>
@@ -8462,11 +8455,11 @@
         <f>分社学习数据!E14</f>
         <v>21</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="40">
         <f>分社学习数据!F14</f>
         <v>0.6216</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="40">
         <f>分社学习数据!G14</f>
         <v>0.5676</v>
       </c>
@@ -8483,11 +8476,11 @@
         <f>分社学习数据!L14</f>
         <v>851</v>
       </c>
-      <c r="K67" s="53">
+      <c r="K67" s="40">
         <f>分社学习数据!M14</f>
         <v>0.6795</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="40">
         <f>分社学习数据!N14</f>
         <v>0.5829</v>
       </c>
@@ -8524,11 +8517,11 @@
         <f>分社学习数据!E15</f>
         <v>13</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="40">
         <f>分社学习数据!F15</f>
         <v>0.6571</v>
       </c>
-      <c r="F68" s="53">
+      <c r="F68" s="40">
         <f>分社学习数据!G15</f>
         <v>0.3714</v>
       </c>
@@ -8545,11 +8538,11 @@
         <f>分社学习数据!L15</f>
         <v>281</v>
       </c>
-      <c r="K68" s="53">
+      <c r="K68" s="40">
         <f>分社学习数据!M15</f>
         <v>0.5416</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="40">
         <f>分社学习数据!N15</f>
         <v>0.57</v>
       </c>
@@ -8586,11 +8579,11 @@
         <f>分社学习数据!E16</f>
         <v>14</v>
       </c>
-      <c r="E69" s="53">
+      <c r="E69" s="40">
         <f>分社学习数据!F16</f>
         <v>0.5172</v>
       </c>
-      <c r="F69" s="53">
+      <c r="F69" s="40">
         <f>分社学习数据!G16</f>
         <v>0.4828</v>
       </c>
@@ -8607,11 +8600,11 @@
         <f>分社学习数据!L16</f>
         <v>425</v>
       </c>
-      <c r="K69" s="53">
+      <c r="K69" s="40">
         <f>分社学习数据!M16</f>
         <v>0.5829</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="40">
         <f>分社学习数据!N16</f>
         <v>0.4605</v>
       </c>
@@ -8648,11 +8641,11 @@
         <f>分社学习数据!E17</f>
         <v>7</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="40">
         <f>分社学习数据!F17</f>
         <v>0.6667</v>
       </c>
-      <c r="F70" s="53">
+      <c r="F70" s="40">
         <f>分社学习数据!G17</f>
         <v>0.5833</v>
       </c>
@@ -8669,11 +8662,11 @@
         <f>分社学习数据!L17</f>
         <v>476</v>
       </c>
-      <c r="K70" s="53">
+      <c r="K70" s="40">
         <f>分社学习数据!M17</f>
         <v>0.5577</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="40">
         <f>分社学习数据!N17</f>
         <v>0.566</v>
       </c>
@@ -8710,11 +8703,11 @@
         <f>分社学习数据!E18</f>
         <v>1</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="40">
         <f>分社学习数据!F18</f>
         <v>0.6</v>
       </c>
-      <c r="F71" s="53">
+      <c r="F71" s="40">
         <f>分社学习数据!G18</f>
         <v>0.2</v>
       </c>
@@ -8731,11 +8724,11 @@
         <f>分社学习数据!L18</f>
         <v>2</v>
       </c>
-      <c r="K71" s="53">
+      <c r="K71" s="40">
         <f>分社学习数据!M18</f>
         <v>0.5</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="40">
         <f>分社学习数据!N18</f>
         <v>0.3333</v>
       </c>
@@ -8762,11 +8755,11 @@
         <f>分社学习数据!E19</f>
         <v>1</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="40">
         <f>分社学习数据!F19</f>
         <v>1</v>
       </c>
-      <c r="F72" s="53">
+      <c r="F72" s="40">
         <f>分社学习数据!G19</f>
         <v>0.3333</v>
       </c>
@@ -8783,11 +8776,11 @@
         <f>分社学习数据!L19</f>
         <v>16</v>
       </c>
-      <c r="K72" s="53">
+      <c r="K72" s="40">
         <f>分社学习数据!M19</f>
         <v>0.3478</v>
       </c>
-      <c r="L72" s="53">
+      <c r="L72" s="40">
         <f>分社学习数据!N19</f>
         <v>0.6957</v>
       </c>
@@ -8814,11 +8807,11 @@
         <f>分社学习数据!E20</f>
         <v>1</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="40">
         <f>分社学习数据!F20</f>
         <v>1</v>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="40">
         <f>分社学习数据!G20</f>
         <v>1</v>
       </c>
@@ -8835,11 +8828,11 @@
         <f>分社学习数据!L20</f>
         <v>5</v>
       </c>
-      <c r="K73" s="53">
+      <c r="K73" s="40">
         <f>分社学习数据!M20</f>
         <v>0.6667</v>
       </c>
-      <c r="L73" s="53">
+      <c r="L73" s="40">
         <f>分社学习数据!N20</f>
         <v>0.8333</v>
       </c>
@@ -8866,11 +8859,11 @@
         <f>分社学习数据!E21</f>
         <v>0</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="40">
         <f>分社学习数据!F21</f>
         <v>0</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="40">
         <f>分社学习数据!G21</f>
         <v>0</v>
       </c>
@@ -8887,11 +8880,11 @@
         <f>分社学习数据!L21</f>
         <v>1</v>
       </c>
-      <c r="K74" s="53">
+      <c r="K74" s="40">
         <f>分社学习数据!M21</f>
         <v>0.5</v>
       </c>
-      <c r="L74" s="53">
+      <c r="L74" s="40">
         <f>分社学习数据!N21</f>
         <v>0.5</v>
       </c>
@@ -8928,11 +8921,11 @@
         <f>分社学习数据!E22</f>
         <v>0</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="40">
         <f>分社学习数据!F22</f>
         <v>0</v>
       </c>
-      <c r="F75" s="53">
+      <c r="F75" s="40">
         <f>分社学习数据!G22</f>
         <v>0</v>
       </c>
@@ -8949,11 +8942,11 @@
         <f>分社学习数据!L22</f>
         <v>0</v>
       </c>
-      <c r="K75" s="53">
+      <c r="K75" s="40">
         <f>分社学习数据!M22</f>
         <v>0</v>
       </c>
-      <c r="L75" s="53">
+      <c r="L75" s="40">
         <f>分社学习数据!N22</f>
         <v>0</v>
       </c>
@@ -8990,11 +8983,11 @@
         <f>分社学习数据!E23</f>
         <v>0</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="40">
         <f>分社学习数据!F23</f>
         <v>0</v>
       </c>
-      <c r="F76" s="53">
+      <c r="F76" s="40">
         <f>分社学习数据!G23</f>
         <v>0</v>
       </c>
@@ -9011,11 +9004,11 @@
         <f>分社学习数据!L23</f>
         <v>0</v>
       </c>
-      <c r="K76" s="53">
+      <c r="K76" s="40">
         <f>分社学习数据!M23</f>
         <v>0</v>
       </c>
-      <c r="L76" s="53">
+      <c r="L76" s="40">
         <f>分社学习数据!N23</f>
         <v>0</v>
       </c>
@@ -9052,11 +9045,11 @@
         <f>分社学习数据!E24</f>
         <v>0</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="40">
         <f>分社学习数据!F24</f>
         <v>0</v>
       </c>
-      <c r="F77" s="53">
+      <c r="F77" s="40">
         <f>分社学习数据!G24</f>
         <v>0</v>
       </c>
@@ -9073,11 +9066,11 @@
         <f>分社学习数据!L24</f>
         <v>21</v>
       </c>
-      <c r="K77" s="53">
+      <c r="K77" s="40">
         <f>分社学习数据!M24</f>
         <v>0.7955</v>
       </c>
-      <c r="L77" s="53">
+      <c r="L77" s="40">
         <f>分社学习数据!N24</f>
         <v>0.4773</v>
       </c>
